--- a/Big Tech/Alphabet.xlsx
+++ b/Big Tech/Alphabet.xlsx
@@ -5,29 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00215A84-9231-3D40-8060-C042C2C9C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FEBEC-E1AC-A24B-8C38-447C50B13F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -328,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Alphabet</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -871,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,18 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -956,13 +965,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,12 +987,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1001,10 +998,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,6 +1005,27 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2251,6 +2265,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3p2&amp;q=XNAS%3aGOOG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ALPHABET INC. (XNAS:GOOG)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1u3p2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>144.0438</v>
+    <v>83.45</v>
+    <v>1.1008</v>
+    <v>2.68</v>
+    <v>2.6450999999999999E-2</v>
+    <v>-0.09</v>
+    <v>-8.6540000000000011E-4</v>
+    <v>USD</v>
+    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
+    <v>190234</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
+    <v>104.19</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.999991423436</v>
+    <v>0</v>
+    <v>101.44</v>
+    <v>1330082000000</v>
+    <v>ALPHABET INC.</v>
+    <v>ALPHABET INC.</v>
+    <v>101.71</v>
+    <v>22.260100000000001</v>
+    <v>101.32</v>
+    <v>104</v>
+    <v>103.91</v>
+    <v>12807000000</v>
+    <v>GOOG</v>
+    <v>ALPHABET INC. (XNAS:GOOG)</v>
+    <v>28107953</v>
+    <v>31281977</v>
+    <v>2015</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2551,10 +3005,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomRight" activeCell="AA97" sqref="AA97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2565,8 +3019,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2000</v>
@@ -2831,21 +3285,21 @@
         <v>436900000000</v>
       </c>
       <c r="AD3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3121,16 +3575,16 @@
         <v>156633000000</v>
       </c>
       <c r="AD6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AG6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -3299,7 +3753,7 @@
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3394,16 +3848,16 @@
         <v>0.13965690364734334</v>
       </c>
       <c r="AD9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -3644,21 +4098,21 @@
         <v>42291000000</v>
       </c>
       <c r="AD12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3917,16 +4371,16 @@
         <v>81791000000</v>
       </c>
       <c r="AD15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AG15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -4008,15 +4462,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>4.9098733392990992</v>
+        <v>4.702661613090271</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>23.155621553291535</v>
+        <v>22.178383245514574</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>23.140958770104984</v>
+        <v>22.164339276787203</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4167,7 +4621,7 @@
         <v>15928000000</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4250,7 +4704,7 @@
     </row>
     <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4936,7 +5390,7 @@
     </row>
     <row r="29" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5400,7 +5854,7 @@
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -8750,7 +9204,7 @@
     </row>
     <row r="80" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:X80" si="6">B79/B3</f>
@@ -9066,10 +9520,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF83" s="34"/>
+      <c r="AE83" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF83" s="61"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9144,10 +9598,10 @@
       <c r="X84" s="1">
         <v>707000000</v>
       </c>
-      <c r="AE84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF84" s="36"/>
+      <c r="AE84" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF84" s="63"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9223,7 +9677,7 @@
         <v>951000000</v>
       </c>
       <c r="AE85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF85" s="24">
         <f>X17</f>
@@ -9304,7 +9758,7 @@
         <v>6549000000</v>
       </c>
       <c r="AE86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF86" s="24">
         <f>X56</f>
@@ -9385,7 +9839,7 @@
         <v>91495000000</v>
       </c>
       <c r="AE87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF87" s="24">
         <f>X61</f>
@@ -9465,17 +9919,17 @@
       <c r="X88" s="1">
         <v>-31485000000</v>
       </c>
-      <c r="AE88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF88" s="38">
+      <c r="AE88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF88" s="34">
         <f>AF85/(AF86+AF87)</f>
         <v>1.2028707166683514E-2</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:X89" si="7">(-1*B88)/B3</f>
@@ -9570,7 +10024,7 @@
         <v>0.11131892686928113</v>
       </c>
       <c r="AE89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF89" s="24">
         <f>X27</f>
@@ -9731,10 +10185,10 @@
       <c r="X91" s="1">
         <v>-81405000000</v>
       </c>
-      <c r="AE91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF91" s="38">
+      <c r="AE91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF91" s="34">
         <f>AF89/AF90</f>
         <v>0.1592081650964558</v>
       </c>
@@ -9812,10 +10266,10 @@
       <c r="X92" s="1">
         <v>97972000000</v>
       </c>
-      <c r="AE92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF92" s="40">
+      <c r="AE92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF92" s="36">
         <f>AF88*(1-AF91)</f>
         <v>1.0113638770193244E-2</v>
       </c>
@@ -9893,10 +10347,10 @@
       <c r="X93" s="1">
         <v>1589000000</v>
       </c>
-      <c r="AE93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF93" s="36"/>
+      <c r="AE93" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF93" s="63"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9972,9 +10426,9 @@
         <v>-20298000000</v>
       </c>
       <c r="AE94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AF94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10051,11 +10505,12 @@
       <c r="X95" s="1">
         <v>-54068000000</v>
       </c>
-      <c r="AE95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF95" s="43">
-        <v>1.19</v>
+      <c r="AE95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF95" s="56" cm="1">
+        <f t="array" ref="AF95">_FV(A1,"Beta")</f>
+        <v>1.1008</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10132,9 +10587,9 @@
         <v>92</v>
       </c>
       <c r="AE96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AF96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10211,12 +10666,12 @@
       <c r="X97" s="1">
         <v>-59296000000</v>
       </c>
-      <c r="AE97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF97" s="40">
+      <c r="AE97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.2179499999999998E-2</v>
+        <v>8.8339440000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10292,10 +10747,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF98" s="36"/>
+      <c r="AE98" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF98" s="63"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10371,7 +10826,7 @@
         <v>43607000000</v>
       </c>
       <c r="AE99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF99" s="24">
         <f>AF86+AF87</f>
@@ -10451,12 +10906,12 @@
       <c r="X100" s="10">
         <v>-69757000000</v>
       </c>
-      <c r="AE100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF100" s="38">
+      <c r="AE100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>2.0924753902721121E-2</v>
+        <v>2.1826629826859279E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10532,12 +10987,12 @@
       <c r="X101" s="1">
         <v>-506000000</v>
       </c>
-      <c r="AE101" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF101" s="44">
-        <f>Z116*X34</f>
-        <v>1388688935794</v>
+      <c r="AE101" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF101" s="49" cm="1">
+        <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
+        <v>1330082000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10613,12 +11068,12 @@
       <c r="X102" s="10">
         <v>934000000</v>
       </c>
-      <c r="AE102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF102" s="38">
+      <c r="AE102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.97907524609727892</v>
+        <v>0.97817337017314077</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10694,12 +11149,12 @@
       <c r="X103" s="1">
         <v>20945000000</v>
       </c>
-      <c r="AE103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF103" s="45">
+      <c r="AE103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>1418367935794</v>
+        <v>1359761000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10775,14 +11230,14 @@
       <c r="X104" s="11">
         <v>21879000000</v>
       </c>
-      <c r="AE104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF104" s="36"/>
+      <c r="AE104" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF104" s="63"/>
     </row>
     <row r="105" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -10880,11 +11335,11 @@
       <c r="AC105" s="15"/>
       <c r="AD105" s="15"/>
       <c r="AE105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.0462292049951432E-2</v>
+        <v>8.6632034393647556E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10960,33 +11415,33 @@
       <c r="X106" s="1">
         <v>60010000000</v>
       </c>
-      <c r="Y106" s="46">
+      <c r="Y106" s="64">
         <f>X106*(1+$AF$106)</f>
         <v>65489689764.619743</v>
       </c>
-      <c r="Z106" s="46">
+      <c r="Z106" s="64">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>71469746133.413437</v>
       </c>
-      <c r="AA106" s="46">
+      <c r="AA106" s="64">
         <f t="shared" si="9"/>
         <v>77995859054.047287</v>
       </c>
-      <c r="AB106" s="46">
+      <c r="AB106" s="64">
         <f t="shared" si="9"/>
         <v>85117890557.816452</v>
       </c>
-      <c r="AC106" s="46">
+      <c r="AC106" s="64">
         <f t="shared" si="9"/>
         <v>92890255724.883453</v>
       </c>
-      <c r="AD106" s="47" t="s">
+      <c r="AD106" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AE106" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF106" s="49">
+      <c r="AF106" s="41">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>9.1312943919675815E-2</v>
       </c>
@@ -11016,150 +11471,151 @@
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
-      <c r="Y107" s="47"/>
-      <c r="Z107" s="47"/>
-      <c r="AA107" s="47"/>
-      <c r="AB107" s="47"/>
-      <c r="AC107" s="50">
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>1454463464941.8171</v>
-      </c>
-      <c r="AD107" s="51" t="s">
+        <v>1544854279997.9216</v>
+      </c>
+      <c r="AD107" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AE107" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF107" s="53">
+      <c r="AF107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="50">
+      <c r="Y108" s="42">
         <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
         <v>65489689764.619743</v>
       </c>
-      <c r="Z108" s="50">
+      <c r="Z108" s="42">
         <f t="shared" si="10"/>
         <v>71469746133.413437</v>
       </c>
-      <c r="AA108" s="50">
+      <c r="AA108" s="42">
         <f t="shared" si="10"/>
         <v>77995859054.047287</v>
       </c>
-      <c r="AB108" s="50">
+      <c r="AB108" s="42">
         <f>AB107+AB106</f>
         <v>85117890557.816452</v>
       </c>
-      <c r="AC108" s="50">
+      <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>1547353720666.7007</v>
-      </c>
-      <c r="AD108" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE108" s="54" t="s">
+        <v>1637744535722.8052</v>
+      </c>
+      <c r="AD108" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE108" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF108" s="47">
+        <f>AF105</f>
+        <v>8.6632034393647556E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y109" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="AF108" s="55">
-        <f>AF105</f>
-        <v>9.0462292049951432E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="56" t="s">
+      <c r="Z109" s="59"/>
+    </row>
+    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y110" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="Z109" s="57"/>
-    </row>
-    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="58" t="s">
+      <c r="Z110" s="49">
+        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
+        <v>1323655999563.3564</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y111" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="Z110" s="59">
-        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1244052315611.5623</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z111" s="59">
+      <c r="Z111" s="49">
         <f>X40</f>
         <v>113762000000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z112" s="59">
+      <c r="Y112" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z112" s="49">
         <f>AF99</f>
         <v>29679000000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="58" t="s">
+      <c r="Y113" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z113" s="49">
+        <f>Z110+Z111-Z112</f>
+        <v>1407738999563.3564</v>
+      </c>
+    </row>
+    <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y114" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Z113" s="59">
-        <f>Z110+Z111-Z112</f>
-        <v>1328135315611.5623</v>
-      </c>
-    </row>
-    <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z114" s="60">
+      <c r="Z114" s="50">
         <f>X34*(1+(5*AD16))</f>
         <v>13051072012.005297</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="61" t="s">
+      <c r="Y115" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z115" s="52">
+        <f>Z113/Z114</f>
+        <v>107.86385963301856</v>
+      </c>
+    </row>
+    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Z115" s="62">
-        <f>Z113/Z114</f>
-        <v>101.7644615239154</v>
-      </c>
-    </row>
-    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="63" t="s">
+      <c r="Z116" s="57" cm="1">
+        <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>103.91</v>
+      </c>
+    </row>
+    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y117" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="Z116" s="64">
-        <v>102.46</v>
-      </c>
-    </row>
-    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="65" t="s">
+      <c r="Z117" s="54">
+        <f>Z115/Z116-1</f>
+        <v>3.8050809672010022E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y118" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="Z117" s="66">
-        <f>Z115/Z116-1</f>
-        <v>-6.7883903580382432E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z118" s="67" t="str">
+      <c r="Z118" s="55" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y109:Z109"/>
     <mergeCell ref="AE83:AF83"/>
     <mergeCell ref="AE84:AF84"/>
     <mergeCell ref="AE93:AF93"/>
     <mergeCell ref="AE98:AF98"/>
     <mergeCell ref="AE104:AF104"/>
-    <mergeCell ref="Y109:Z109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/GOOG" display="ROIC.AI | GOOG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Big Tech/Alphabet.xlsx
+++ b/Big Tech/Alphabet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FEBEC-E1AC-A24B-8C38-447C50B13F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15477C-C4A1-F948-86CD-3A51EEAE14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -997,7 +998,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,6 +1007,7 @@
     </xf>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,7 +1026,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2385,13 +2386,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>144.0438</v>
+    <v>139.8485</v>
     <v>83.45</v>
-    <v>1.1008</v>
-    <v>2.68</v>
-    <v>2.6450999999999999E-2</v>
-    <v>-0.09</v>
-    <v>-8.6540000000000011E-4</v>
+    <v>1.0974999999999999</v>
+    <v>3.95</v>
+    <v>3.7637000000000004E-2</v>
+    <v>-0.18</v>
+    <v>-1.653E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>190234</v>
@@ -2399,25 +2400,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>104.19</v>
+    <v>109.63</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.999991423436</v>
+    <v>45022.999879385934</v>
     <v>0</v>
-    <v>101.44</v>
-    <v>1330082000000</v>
+    <v>104.815</v>
+    <v>1391400000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>101.71</v>
-    <v>22.260100000000001</v>
-    <v>101.32</v>
-    <v>104</v>
-    <v>103.91</v>
+    <v>105.77</v>
+    <v>23.057600000000001</v>
+    <v>104.95</v>
+    <v>108.9</v>
+    <v>108.72</v>
     <v>12807000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>28107953</v>
-    <v>31281977</v>
+    <v>34684150</v>
+    <v>30489120</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -3005,10 +3006,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA97" sqref="AA97"/>
+      <selection pane="bottomRight" activeCell="AF101" sqref="AF101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4462,15 +4463,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>4.702661613090271</v>
+        <v>4.9194586262003419</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>22.178383245514574</v>
+        <v>23.200827052624557</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>22.164339276787203</v>
+        <v>23.186135644059323</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10508,9 +10509,9 @@
       <c r="AE95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AF95" s="56" cm="1">
+      <c r="AF95" s="55" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.1008</v>
+        <v>1.0974999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10671,7 +10672,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.8339440000000005E-2</v>
+        <v>8.8197374999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10911,7 +10912,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>2.1826629826859279E-2</v>
+        <v>2.0884834692511817E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10992,7 +10993,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1330082000000</v>
+        <v>1391400000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11073,7 +11074,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.97817337017314077</v>
+        <v>0.97911516530748821</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11154,7 +11155,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>1359761000000</v>
+        <v>1421079000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11339,7 +11340,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.6632034393647556E-2</v>
+        <v>8.6566609076666787E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11415,23 +11416,23 @@
       <c r="X106" s="1">
         <v>60010000000</v>
       </c>
-      <c r="Y106" s="64">
+      <c r="Y106" s="57">
         <f>X106*(1+$AF$106)</f>
         <v>65489689764.619743</v>
       </c>
-      <c r="Z106" s="64">
+      <c r="Z106" s="57">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>71469746133.413437</v>
       </c>
-      <c r="AA106" s="64">
+      <c r="AA106" s="57">
         <f t="shared" si="9"/>
         <v>77995859054.047287</v>
       </c>
-      <c r="AB106" s="64">
+      <c r="AB106" s="57">
         <f t="shared" si="9"/>
         <v>85117890557.816452</v>
       </c>
-      <c r="AC106" s="64">
+      <c r="AC106" s="57">
         <f t="shared" si="9"/>
         <v>92890255724.883453</v>
       </c>
@@ -11477,7 +11478,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>1544854279997.9216</v>
+        <v>1546495958538.835</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -11508,7 +11509,7 @@
       </c>
       <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>1637744535722.8052</v>
+        <v>1639386214263.7185</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -11518,7 +11519,7 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>8.6632034393647556E-2</v>
+        <v>8.6566609076666787E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11533,7 +11534,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1323655999563.3564</v>
+        <v>1325102043426.0586</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11560,7 +11561,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>1407738999563.3564</v>
+        <v>1409185043426.0586</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11576,36 +11577,36 @@
       <c r="Y115" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="Z115" s="52">
+      <c r="Z115" s="64">
         <f>Z113/Z114</f>
-        <v>107.86385963301856</v>
+        <v>107.97465849010646</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
       <c r="Y116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Z116" s="57" cm="1">
+      <c r="Z116" s="56" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>103.91</v>
+        <v>108.72</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="53" t="s">
+      <c r="Y117" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="Z117" s="54">
+      <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>3.8050809672010022E-2</v>
+        <v>-6.8556062352238545E-3</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="53" t="s">
+      <c r="Y118" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="Z118" s="55" t="str">
+      <c r="Z118" s="54" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
